--- a/res/CatalogueProduits.xlsx
+++ b/res/CatalogueProduits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\PhotoLab\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\PhotoLab\Code\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="CatalogueProduits" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Gen Catalog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CatalogueProduits" localSheetId="0">CatalogueProduits!$A$1:$B$74</definedName>
+    <definedName name="CatalogueProduits" localSheetId="0">CatalogueProduits!$A$1:$B$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Description</t>
   </si>
@@ -193,23 +193,53 @@
     <t>20x20cm_PORTRAIT_NOIR-ET-BLANC</t>
   </si>
   <si>
-    <t>Calendriers Calendrier Quattro 20x20</t>
-  </si>
-  <si>
-    <t>Calendriers Calendrier Quattro 30x30</t>
-  </si>
-  <si>
-    <t>Produits Carrés Carré-ID</t>
-  </si>
-  <si>
-    <t>Noir &amp; Blanc Carré N&amp;B 30 cm</t>
+    <t>Pour les enfants</t>
+  </si>
+  <si>
+    <t>Carte de FBI</t>
+  </si>
+  <si>
+    <t>20x20cm_CADRE-QUATTRO-CALENDRIER</t>
+  </si>
+  <si>
+    <t>30x30cm_CADRE-QUATTRO-CALENDRIER</t>
+  </si>
+  <si>
+    <t>Calendriers 20x20</t>
+  </si>
+  <si>
+    <t>Calendrier Quattro 30 cm</t>
+  </si>
+  <si>
+    <t>Calendrier Quattro 20 cm</t>
+  </si>
+  <si>
+    <t>Cadre-ID</t>
+  </si>
+  <si>
+    <t>Calendriers &amp; Voeux</t>
+  </si>
+  <si>
+    <t>Calendriers &amp; Voeux C - 4 Cartes de Voeux</t>
+  </si>
+  <si>
+    <t>Pour les enfants Affiche Wanted</t>
+  </si>
+  <si>
+    <t>18x22cm_CADRE-VOEUX</t>
+  </si>
+  <si>
+    <t>20x30cm_WANTED</t>
+  </si>
+  <si>
+    <t>10x15cm_CADRE-CARRE-ID-FBI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +249,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,9 +295,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,6 +316,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953624" y="485775"/>
+          <a:ext cx="5286375" cy="2990850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ATTENTION CONVERTIR EN CSV le premier onglet puis convertir en UT8 avec note pad ++</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E9:E10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,131 +679,263 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" t="str">
+        <f>'Gen Catalog'!C2</f>
+        <v>Photo de classe Carré Classe 20 cm</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'Gen Catalog'!D2</f>
+        <v>20x20cm_CADRE-GP</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" t="str">
+        <f>'Gen Catalog'!C3</f>
+        <v>Photo de classe Carré Classe 30 cm</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Gen Catalog'!D3</f>
+        <v>30x30cm_CADRE-GP</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
+      <c r="A4" t="str">
+        <f>'Gen Catalog'!C4</f>
+        <v>Calendriers 20x20</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'Gen Catalog'!D4</f>
+        <v>20x20cm_CADRE-CALENDRIER</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
+      <c r="A5" t="str">
+        <f>'Gen Catalog'!C5</f>
+        <v>Calendriers Calendrier 20 cm</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'Gen Catalog'!D5</f>
+        <v>20x20cm_CADRE-CALENDRIER</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" t="str">
+        <f>'Gen Catalog'!C6</f>
+        <v>Calendriers Calendrier 20 cm</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'Gen Catalog'!D6</f>
+        <v>20x20cm_CADRE-CALENDRIER</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" t="str">
+        <f>'Gen Catalog'!C7</f>
+        <v>Calendriers Calendrier 30 cm</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'Gen Catalog'!D7</f>
+        <v>30x30cm_CADRE-CALENDRIER</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
+      <c r="A8" t="str">
+        <f>'Gen Catalog'!C8</f>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 20 cm</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'Gen Catalog'!D8</f>
+        <v>20x20cm_CADRE-QUATTRO-CALENDRIER</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+      <c r="A9" t="str">
+        <f>'Gen Catalog'!C9</f>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 30 cm</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'Gen Catalog'!D9</f>
+        <v>30x30cm_CADRE-QUATTRO-CALENDRIER</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+      <c r="A10" t="str">
+        <f>'Gen Catalog'!C10</f>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 20x20</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'Gen Catalog'!D10</f>
+        <v>20x20cm_CADRE-QUATTRO-CALENDRIER</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+      <c r="A11" t="str">
+        <f>'Gen Catalog'!C11</f>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 30x30</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Gen Catalog'!D11</f>
+        <v>30x30cm_CADRE-QUATTRO-CALENDRIER</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
+      <c r="A12" t="str">
+        <f>'Gen Catalog'!C12</f>
+        <v>Calendriers &amp; Voeux Calendrier 20 cm</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'Gen Catalog'!D12</f>
+        <v>20x20cm_CADRE-CALENDRIER</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
+      <c r="A13" t="str">
+        <f>'Gen Catalog'!C13</f>
+        <v>Calendriers &amp; Voeux Calendrier 30 cm</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'Gen Catalog'!D13</f>
+        <v>30x30cm_CADRE-CALENDRIER</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
+      <c r="A14" t="str">
+        <f>'Gen Catalog'!C14</f>
+        <v>Agrandissements Carrés Carré 18 cm</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'Gen Catalog'!D14</f>
+        <v>18x18cm_PORTRAIT</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
+      <c r="A15" t="str">
+        <f>'Gen Catalog'!C15</f>
+        <v>Agrandissements Carrés Carré 20 cm</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'Gen Catalog'!D15</f>
+        <v>20x20cm_PORTRAIT</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
+      <c r="A16" t="str">
+        <f>'Gen Catalog'!C16</f>
+        <v>Agrandissements Carrés Carré 30 cm</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'Gen Catalog'!D16</f>
+        <v>30x30cm_PORTRAIT</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
+      <c r="A17" t="str">
+        <f>'Gen Catalog'!C17</f>
+        <v>Produits Carrés Quattro 18 cm</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'Gen Catalog'!D17</f>
+        <v>18x18cm_CADRE-QUATTRO</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>'Gen Catalog'!C18</f>
+        <v>Produits Carrés Quattro 20 cm</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'Gen Catalog'!D18</f>
+        <v>20x20cm_CADRE-QUATTRO</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>'Gen Catalog'!C19</f>
+        <v>Produits Carrés Quattro 30 cm</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'Gen Catalog'!D19</f>
+        <v>30x30cm_CADRE-QUATTRO</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>'Gen Catalog'!C20</f>
+        <v>Produits Carrés 4 Carrés 18 cm</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'Gen Catalog'!D20</f>
+        <v>18x18cm_CADRE-4CARRES</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>'Gen Catalog'!C21</f>
+        <v>Produits Carrés Carré-ID</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'Gen Catalog'!D21</f>
+        <v>18x18cm_CADRE-CARRE-ID</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>'Gen Catalog'!C22</f>
+        <v>Produits Carrés Cadre-ID</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'Gen Catalog'!D22</f>
+        <v>18x18cm_CADRE-CARRE-ID</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>'Gen Catalog'!C23</f>
+        <v>Noir &amp; Blanc Carré N&amp;B 18 cm</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'Gen Catalog'!D23</f>
+        <v>18x18cm_PORTRAIT_NOIR-ET-BLANC</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>'Gen Catalog'!C24</f>
+        <v>Noir &amp; Blanc Carré N&amp;B 30 cm</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'Gen Catalog'!D24</f>
+        <v>20x20cm_PORTRAIT_NOIR-ET-BLANC</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>'Gen Catalog'!C25</f>
+        <v>Pour les enfants Carte de FBI</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'Gen Catalog'!D25</f>
+        <v>10x15cm_CADRE-CARRE-ID-FBI</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>'Gen Catalog'!C26</f>
+        <v>Calendriers &amp; Voeux C - 4 Cartes de Voeux</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'Gen Catalog'!D26</f>
+        <v>18x22cm_CADRE-VOEUX</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>'Gen Catalog'!C27</f>
+        <v>Pour les enfants Affiche Wanted</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'Gen Catalog'!D27</f>
+        <v>20x30cm_WANTED</v>
       </c>
     </row>
   </sheetData>
@@ -687,16 +946,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
@@ -717,10 +977,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="str">
@@ -738,14 +998,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C17" si="0">A3 &amp; " " &amp; B3</f>
+        <f t="shared" ref="C3:C25" si="0">A3 &amp; " " &amp; B3</f>
         <v>Photo de classe Carré Classe 30 cm</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -759,282 +1019,432 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Calendriers Calendrier 20 cm</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Calendriers Calendrier 30 cm</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Calendriers Calendrier Quattro 20x20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Calendriers Calendrier Quattro 30x30</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:C9" si="1">A8 &amp; " " &amp; B8</f>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 20 cm</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 30 cm</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C13" si="2">A10 &amp; " " &amp; B10</f>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 20x20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>Calendriers &amp; Voeux Calendrier Quattro 30x30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>Calendriers &amp; Voeux Calendrier 20 cm</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>Calendriers &amp; Voeux Calendrier 30 cm</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Agrandissements Carrés Carré 18 cm</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Agrandissements Carrés Carré 20 cm</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Agrandissements Carrés Carré 30 cm</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Produits Carrés Quattro 18 cm</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Produits Carrés Quattro 20 cm</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Produits Carrés Quattro 30 cm</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Produits Carrés 4 Carrés 18 cm</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G20" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Produits Carrés Carré-ID</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Produits Carrés Cadre-ID</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Noir &amp; Blanc Carré N&amp;B 18 cm</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Noir &amp; Blanc Carré N&amp;B 30 cm</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Pour les enfants Carte de FBI</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>